--- a/XML/Atomistic-Class2/WebFF-Class2-DataTemplate.xlsx
+++ b/XML/Atomistic-Class2/WebFF-Class2-DataTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Projects\WebFF-Documentation\Atomistic-Class2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Projects\WebFF-Documentation\XML\Atomistic-Class2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B8C690CD-E5D7-4840-8182-2564A4029ECD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13980" windowHeight="8190" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="13980" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="20" r:id="rId1"/>
@@ -64,8 +65,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="KeywordListTab" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="KeywordListTab" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\png3\Desktop\KeywordListTab.txt">
       <textFields>
         <textField type="text"/>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="308">
   <si>
     <t>Harmonic</t>
   </si>
@@ -279,9 +280,6 @@
     <t>Data Source</t>
   </si>
   <si>
-    <t>Data Scribe (Name)</t>
-  </si>
-  <si>
     <t>» DOI</t>
   </si>
   <si>
@@ -994,12 +992,21 @@
   </si>
   <si>
     <t>epsilon*[2*(Rmin/R)^9-3*(Rmin/R)^6]</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Data Contact (Name)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1347,7 +1354,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1468,6 +1475,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1500,7 +1513,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="KeywordListTab_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="KeywordListTab_1" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1823,14 +1836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B5:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1855,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="70"/>
     </row>
@@ -1852,7 +1865,7 @@
     </row>
     <row r="3" spans="1:2" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="38"/>
     </row>
@@ -1867,66 +1880,81 @@
       <c r="B5" s="34"/>
     </row>
     <row r="6" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="37"/>
+      <c r="A6" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="35"/>
+        <v>44</v>
+      </c>
+      <c r="B7" s="37"/>
     </row>
     <row r="8" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="35"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="35"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="36"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="37"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="35"/>
+        <v>67</v>
+      </c>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>67</v>
+      <c r="A12" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="B12" s="37"/>
     </row>
     <row r="13" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="37"/>
+      <c r="A13" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="35"/>
     </row>
     <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="62"/>
+        <v>307</v>
+      </c>
+      <c r="B14" s="37"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="37"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6" xr:uid="{625A1D34-E7D9-4438-BF9C-8FF77B22D9EB}">
       <formula1>"?, Atomistic - Class I, Atomistic - Class II, Atomistic - Bond Order, Atomistic - ReaxFF, Atomistic - Polarizable, Atomistic - United Atom (UA), Coarse-Grained (CG) - Pseudo-Atom"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{98061E2D-2DAD-4F6C-BD12-48EB00C4402F}">
+      <formula1>"Mixed-English,Mixed-Metric,Reduced"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1935,7 +1963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -1965,7 +1993,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -1977,22 +2005,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -2004,7 +2032,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -2047,13 +2075,13 @@
         <v>30</v>
       </c>
       <c r="H9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="J9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2076,19 +2104,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>"Kd*[1+cos(N*Phi-Phi0)]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0900-000003000000}">
       <formula1>"CHARMM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0900-000004000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2098,7 +2126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2127,7 +2155,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -2139,7 +2167,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>34</v>
@@ -2151,10 +2179,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -2166,7 +2194,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -2197,33 +2225,33 @@
         <v>29</v>
       </c>
       <c r="H8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"Harmonic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>"Kd*[1+Ns*cos(N*Phi)]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576" xr:uid="{00000000-0002-0000-0A00-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F1048576" xr:uid="{00000000-0002-0000-0A00-000005000000}">
       <formula1>"-1, 1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2233,7 +2261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2262,7 +2290,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>36</v>
@@ -2274,7 +2302,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>37</v>
@@ -2286,10 +2314,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -2301,7 +2329,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -2341,30 +2369,30 @@
         <v>30</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>"Quadratic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>"Kd*(Phi-Phi0)^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0B00-000003000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0B00-000004000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2374,7 +2402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2405,7 +2433,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
@@ -2417,7 +2445,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>38</v>
@@ -2429,10 +2457,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -2441,10 +2469,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -2478,27 +2506,27 @@
         <v>42</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>"0.5*{K1*[1+cos(Phi)]+K2*[1-cos(2*Phi)]+K3*[1+cos(3*Phi)]+K4*[1-cos(4*Phi)]}"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>"OPLS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0C00-000003000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2508,7 +2536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2538,10 +2566,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -2550,10 +2578,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5"/>
       <c r="G4" s="5" t="s">
@@ -2562,10 +2590,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -2574,10 +2602,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="G6" s="5" t="s">
@@ -2610,30 +2638,30 @@
         <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="L8" s="44" t="s">
         <v>123</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>"Fourier-Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0D00-000002000000}">
       <formula1>"K1*[1+cos(Phi)]+K2*[1+cos(2*Phi)]+K3*[1+cos(3*Phi)]+K4*[1+cos(4*Phi)]+K5*[1+cos(5*Phi)], K1*[1-cos(Phi)]+K2*[1-cos(2*Phi)]+K3*[1-cos(3*Phi)]+K4*[1-cos(4*Phi)]+K5*[1-cos(5*Phi)]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0D00-000003000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2643,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2667,7 +2695,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>57</v>
@@ -2679,10 +2707,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="5"/>
       <c r="I4" s="5" t="s">
@@ -2691,10 +2719,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -2703,10 +2731,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="I6" s="5" t="s">
@@ -2715,7 +2743,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -2743,73 +2771,73 @@
         <v>39</v>
       </c>
       <c r="F9" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="45" t="s">
         <v>128</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>129</v>
       </c>
       <c r="H9" s="45" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="45" t="s">
         <v>130</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>131</v>
       </c>
       <c r="K9" s="45" t="s">
         <v>41</v>
       </c>
       <c r="L9" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="45" t="s">
         <v>132</v>
-      </c>
-      <c r="M9" s="45" t="s">
-        <v>133</v>
       </c>
       <c r="N9" s="45" t="s">
         <v>42</v>
       </c>
       <c r="O9" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="Q9" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="Q9" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="R9" s="45" t="s">
+      <c r="S9" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="S9" s="45" t="s">
-        <v>137</v>
-      </c>
       <c r="T9" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="U9" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="U9" s="46" t="s">
+      <c r="V9" s="46" t="s">
         <v>123</v>
-      </c>
-      <c r="V9" s="46" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0E00-000002000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0E00-000003000000}">
       <formula1>"Fourier"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0E00-000004000000}">
       <formula1>"K1*[1+cos(N1*Phi-D1)]+K2*[1+cos(N2*Phi-D2)]+K3*[1+cos(N3*Phi-D3)]+K4*[1+cos(N4*Phi-D4)]+K5*[1+cos(N5*Phi-D5)], K1*[1-cos(N1*Phi-D1)]+K2*[1-cos(N2*Phi-D2)]+K3*[1-cos(N3*Phi-D3)]+K4*[1-cos(N4*Phi-D4)]+K5*[1-cos(N5*Phi-D5)]"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2818,7 +2846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8064A2"/>
   </sheetPr>
@@ -2847,10 +2875,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5"/>
       <c r="F3" s="5" t="s">
@@ -2859,10 +2887,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="5"/>
       <c r="F4" s="5" t="s">
@@ -2871,10 +2899,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -2883,10 +2911,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -2895,14 +2923,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -2930,39 +2958,39 @@
         <v>41</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="M9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0F00-000002000000}">
       <formula1>"Class2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0F00-000003000000}">
       <formula1>"K1*[1-cos(Phi-Phi1)]+K2*[1-cos(2*Phi-Phi2)]+K3*[1-cos(3*Phi-Phi3)]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0F00-000004000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2972,7 +3000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3016,7 +3044,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>48</v>
@@ -3031,7 +3059,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>49</v>
@@ -3046,10 +3074,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3064,7 +3092,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -3106,13 +3134,13 @@
         <v>29</v>
       </c>
       <c r="H8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3157,22 +3185,22 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:F1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"-1, 1"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G1048576" xr:uid="{00000000-0002-0000-1000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1000-000002000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1000-000003000000}">
       <formula1>"Ki*[1+Ns*cos(N*Phi)]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1000-000004000000}">
       <formula1>"CVFF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1000-000005000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3182,7 +3210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3223,7 +3251,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -3237,7 +3265,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>51</v>
@@ -3251,10 +3279,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3268,7 +3296,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -3319,13 +3347,13 @@
         <v>54</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3360,19 +3388,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1100-000001000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1100-000002000000}">
       <formula1>"Ki*cos(Chi-Chi0)^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1100-000003000000}">
       <formula1>"COS2, cosine/squared"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1100-000004000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3382,7 +3410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3410,7 +3438,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -3422,7 +3450,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>55</v>
@@ -3434,10 +3462,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3449,7 +3477,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -3489,30 +3517,30 @@
         <v>54</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1200-000001000000}">
       <formula1>"Harmonic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1200-000002000000}">
       <formula1>"Ki*(Chi-Chi0)^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1200-000003000000}">
       <formula1>"? , kcal/degrees^2, kcal/radians^2, kJ/degrees^2, kJ/radians^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1200-000004000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3522,7 +3550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3551,7 +3579,7 @@
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="12"/>
     </row>
@@ -3564,7 +3592,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3579,7 +3607,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>KeywordsList!$A$1:$A$74</xm:f>
           </x14:formula1>
@@ -3592,7 +3620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3621,7 +3649,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>57</v>
@@ -3633,7 +3661,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>61</v>
@@ -3645,10 +3673,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -3660,7 +3688,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -3694,27 +3722,27 @@
         <v>60</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1300-000001000000}">
       <formula1>"Fourier"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1300-000002000000}">
       <formula1>"Ki*[C0+C1*cos(w)+C2*cos(2*w)]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1300-000003000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3724,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3753,7 +3781,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>62</v>
@@ -3765,7 +3793,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>63</v>
@@ -3777,10 +3805,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -3792,7 +3820,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="G6" s="5" t="s">
@@ -3832,30 +3860,30 @@
         <v>64</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1400-000001000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1400-000002000000}">
       <formula1>"0.5*K*[{1+cos(w0)}/sin(w0)]^2*[cos(w)-cos(w0)] ~ w0 ≠ 0° &lt;&gt; K*[1-cos(w)] ~ w0 = 0°"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1400-000003000000}">
       <formula1>"Umbrella"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1400-000004000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3865,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3894,7 +3922,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -3906,22 +3934,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3933,7 +3961,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -3976,30 +4004,30 @@
         <v>30</v>
       </c>
       <c r="H9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="J9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1500-000001000000}">
       <formula1>"? , kcal, kJ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1500-000002000000}">
       <formula1>"?, Kd*[1+cos(N*Phi-Phi0)], Kd*[1+cos(N*Phi+Phi0)], .5*Kd*[1+cos(N*Phi-Phi0)], .5*Kd*[1+cos(N*Phi+Phi0)]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1500-000003000000}">
       <formula1>"CHARMM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1500-000004000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4008,7 +4036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4036,10 +4064,10 @@
     <row r="2" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -4048,7 +4076,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>55</v>
@@ -4060,10 +4088,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -4075,7 +4103,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -4115,30 +4143,30 @@
         <v>54</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1600-000000000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1600-000001000000}">
       <formula1>"Class2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1600-000002000000}">
       <formula1>"Ki*(Chi-Chi0)^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1600-000003000000}">
       <formula1>" kcal/radians^2, , kJ/radians^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1600-000004000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4147,7 +4175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4168,7 +4196,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4176,10 +4204,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -4187,10 +4215,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4198,10 +4226,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4209,10 +4237,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4220,10 +4248,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -4232,39 +4260,39 @@
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>75</v>
-      </c>
       <c r="C9" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1700-000000000000}">
       <formula1>"?,kcal/mol,kJ/mol"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1700-000001000000}">
       <formula1>"?,Å,nm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1700-000002000000}">
       <formula1>"epsilon*[(Rmin/R)^12-2*(Rmin/R)^6]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1700-000003000000}">
       <formula1>"Lennard-Jones (12-6) [Rmin Form]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1700-000004000000}">
       <formula1>"?,Lorentz-Berthelot,Waldman-Hagler,Kong,Fender-Halsey"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4274,7 +4302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4295,7 +4323,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4303,10 +4331,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -4314,10 +4342,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4325,10 +4353,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4336,10 +4364,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4347,10 +4375,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -4359,39 +4387,39 @@
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>75</v>
-      </c>
       <c r="C9" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1800-000000000000}">
       <formula1>"?, Lorentz-Berthelot, Waldman-Hagler, Kong, Fender-Halsey"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1800-000001000000}">
       <formula1>"Lennard-Jones (9-6) [Class 2 Form]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1800-000002000000}">
       <formula1>"epsilon*[2*(Rmin/R)^9-3*(Rmin/R)^6]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1800-000003000000}">
       <formula1>"?, kcal/mol, kJ/mol"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1800-000004000000}">
       <formula1>"?, Å, nm"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4401,7 +4429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4425,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -4449,10 +4477,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -4466,10 +4494,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4483,10 +4511,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4500,10 +4528,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4537,22 +4565,22 @@
         <v>11</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4560,16 +4588,16 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1900-000000000000}">
       <formula1>"BondBond"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1900-000001000000}">
       <formula1>"M*(R-R1)*(R-R2)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1900-000002000000}">
       <formula1>"?, kcal/Å^2, kJ/nm^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1900-000003000000}">
       <formula1>"?, Å, nm"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4578,7 +4606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4602,7 +4630,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -4628,10 +4656,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -4646,10 +4674,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4664,10 +4692,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4682,10 +4710,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4727,19 +4755,19 @@
         <v>29</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4747,16 +4775,16 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1A00-000000000000}">
       <formula1>"?, Å, nm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1A00-000001000000}">
       <formula1>"?, kcal/Å^2, kJ/nm^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1A00-000002000000}">
       <formula1>"N*(Rij-R1)*(Rkl-R3)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1A00-000003000000}">
       <formula1>"BondBond13"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4765,7 +4793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4789,16 +4817,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="5"/>
       <c r="H3" s="5" t="s">
@@ -4807,10 +4835,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="5"/>
       <c r="H4" s="5" t="s">
@@ -4819,10 +4847,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="5"/>
       <c r="H5" s="5" t="s">
@@ -4831,7 +4859,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -4839,7 +4867,7 @@
       <c r="C6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="51" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4857,45 +4885,45 @@
         <v>28</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="M8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1B00-000000000000}">
       <formula1>"? , kcal/Å^2, kJ/nm^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1B00-000001000000}">
       <formula1>"M1*(Theta-Theta1)(Theta-Theta3)+M2*(Theta-Theta1)(Theta-Theta2)+M3*(Theta-Theta2)(Theta-Theta3)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1B00-000002000000}">
       <formula1>"AngleAngle"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1B00-000003000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4905,7 +4933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4929,7 +4957,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -4957,10 +4985,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="5"/>
@@ -4976,10 +5004,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="5"/>
@@ -4995,10 +5023,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="5"/>
@@ -5014,10 +5042,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="5"/>
@@ -5058,25 +5086,25 @@
         <v>15</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5084,16 +5112,16 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1C00-000000000000}">
       <formula1>"?, Å, nm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1C00-000001000000}">
       <formula1>"?, kcal/Å^2, kJ/nm^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1C00-000002000000}">
       <formula1>"N1*(R-R1)*(Theta-Theta0)+N2*(R-R2)*(Theta-Theta0)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1C00-000003000000}">
       <formula1>"BondAngle"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5102,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5148,372 +5176,372 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5522,7 +5550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5546,7 +5574,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -5574,10 +5602,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="5"/>
@@ -5593,10 +5621,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="5"/>
@@ -5612,10 +5640,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="5"/>
@@ -5631,10 +5659,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="5"/>
@@ -5675,25 +5703,25 @@
         <v>28</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5701,16 +5729,16 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>"MiddleBondTorsion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1D00-000001000000}">
       <formula1>"(R-R2)*[A1*cos(Phi)+A2*cos(2*Phi)+A3*cos(3*Phi)]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1D00-000002000000}">
       <formula1>"?, kcal/Å, kJ/nm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1D00-000003000000}">
       <formula1>"?, Å, nm"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5719,7 +5747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5743,7 +5771,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -5779,10 +5807,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="5"/>
@@ -5802,10 +5830,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="5"/>
@@ -5825,10 +5853,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="5"/>
@@ -5848,10 +5876,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="5"/>
@@ -5871,10 +5899,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="5"/>
@@ -5923,13 +5951,13 @@
         <v>28</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>59</v>
@@ -5938,22 +5966,22 @@
         <v>60</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="O9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5961,16 +5989,16 @@
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1E00-000000000000}">
       <formula1>"?, Å, nm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6" xr:uid="{00000000-0002-0000-1E00-000001000000}">
       <formula1>"?, kcal/Å, kJ/nm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1E00-000002000000}">
       <formula1>"(R-R1)*[B1*cos(Phi)+B2*cos(2*Phi)+B3*cos(3*Phi)]+(R-R3)*[C1*cos(Phi)+C2*cos(2*Phi)+C3*cos(3*Phi)]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1E00-000003000000}">
       <formula1>"EndBondTorsion"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5979,7 +6007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6003,7 +6031,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -6039,10 +6067,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="5"/>
@@ -6062,10 +6090,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="5"/>
@@ -6085,10 +6113,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="5"/>
@@ -6108,10 +6136,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="5"/>
@@ -6119,7 +6147,7 @@
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
       <c r="H6" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -6131,7 +6159,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -6142,7 +6170,7 @@
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
       <c r="H7" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -6183,37 +6211,37 @@
         <v>28</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="O9" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6221,16 +6249,16 @@
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6" xr:uid="{00000000-0002-0000-1F00-000000000000}">
       <formula1>"?, kcal/radian, kJ/radian"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1F00-000001000000}">
       <formula1>"AngleTorsion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1F00-000002000000}">
       <formula1>"(Theta-Theta1)*[D1*cos(Phi)+D2*cos(2*Phi)+D3*cos(3*Phi)]+(Theta-Theta2)*[E1*cos(Phi)+E2*cos(2*Phi)+E3*cos(3*Phi)]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1F00-000003000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6239,7 +6267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6263,7 +6291,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -6289,10 +6317,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="56"/>
@@ -6307,10 +6335,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="56"/>
@@ -6325,10 +6353,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="56"/>
@@ -6343,7 +6371,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -6351,7 +6379,7 @@
       <c r="C6" s="52"/>
       <c r="D6" s="56"/>
       <c r="E6" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -6385,22 +6413,22 @@
         <v>28</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6408,16 +6436,16 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-2000-000000000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-2000-000001000000}">
       <formula1>"M(Theta-Theta1)*(Theta-Theta2)*cos(Phi)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-2000-000002000000}">
       <formula1>"AngleAngleTorsion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-2000-000003000000}">
       <formula1>"?, kcal/radian^2, kJ/radian^2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6427,7 +6455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6448,7 +6476,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -6461,10 +6489,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
@@ -6477,31 +6505,31 @@
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>83</v>
-      </c>
       <c r="G5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="I5" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6515,7 +6543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6542,7 +6570,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -6559,10 +6587,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
@@ -6579,43 +6607,43 @@
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="L5" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="M5" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6628,7 +6656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -6650,7 +6678,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -6663,7 +6691,7 @@
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
@@ -6675,25 +6703,25 @@
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="E5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6705,7 +6733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -6729,7 +6757,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -6741,10 +6769,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -6753,39 +6781,39 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="C6" s="67" t="s">
-        <v>291</v>
-      </c>
       <c r="D6" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6843,7 +6871,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-2400-000000000000}">
       <formula1>"?, ATDL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6853,7 +6881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -6877,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -6887,10 +6915,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -6899,33 +6927,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6970,7 +6998,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-2500-000000000000}">
       <formula1>"?, DFF"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6980,7 +7008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -7004,7 +7032,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>
@@ -7014,10 +7042,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -7026,33 +7054,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7100,7 +7128,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-2600-000000000000}">
       <formula1>"?, Generic"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7110,7 +7138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7155,7 +7183,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -7170,7 +7198,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -7188,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -7203,7 +7231,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -7236,13 +7264,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7250,16 +7278,16 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Harmonic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"K*(R-R0)^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"?, kcal/mol/Å^2, kJ/mol/nm^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"?, Å, nm"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7269,7 +7297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -7295,7 +7323,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7303,7 +7331,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
@@ -7316,28 +7344,28 @@
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>296</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7350,7 +7378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -7377,7 +7405,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7385,7 +7413,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
@@ -7399,31 +7427,31 @@
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7436,7 +7464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -7455,7 +7483,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="70"/>
     </row>
@@ -7465,7 +7493,7 @@
     </row>
     <row r="3" spans="1:2" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="38"/>
     </row>
@@ -7475,7 +7503,7 @@
     </row>
     <row r="5" spans="1:2" ht="338.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" s="69"/>
     </row>
@@ -7488,7 +7516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7536,10 +7564,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="5"/>
@@ -7553,10 +7581,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="5"/>
@@ -7573,7 +7601,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="5"/>
@@ -7590,7 +7618,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="5"/>
@@ -7633,13 +7661,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7647,16 +7675,16 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Class2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"K2*(R-R0)^2+K3*(R-R0)^3+K4*(R-R0)^4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"?,K2:kcal/mol/Å^2 | K3:kcal/mol/Å^3 | K4:kcal/mol/Å^4,K2:kJ/mol/nm^2 | K3:kJ/mol/nm^3 | K4:kJ/mol/nm^4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"?, Å, nm"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7665,7 +7693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -7705,7 +7733,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -7716,7 +7744,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -7730,7 +7758,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -7765,16 +7793,16 @@
         <v>15</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7782,16 +7810,16 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"?,kcal/mol/degrees^2,kJ/mol/degrees^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"Ka*(Theta-Theta0)^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"Harmonic"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7801,7 +7829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -7841,7 +7869,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -7853,7 +7881,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -7868,7 +7896,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -7905,16 +7933,16 @@
         <v>15</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7922,16 +7950,16 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"cosine/squared"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Ka*[cos(Theta)-cos(Theta0)]^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"?,kcal/mol,kJ/mol"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7941,7 +7969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -7981,7 +8009,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -7993,7 +8021,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -8008,7 +8036,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -8032,7 +8060,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -8044,7 +8072,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
@@ -8077,16 +8105,16 @@
         <v>26</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -8094,22 +8122,22 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"? , kcal/mol/degrees^2, kJ/mol/degrees^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"Ka*(Theta-Theta0)^2+Kub*(R-Rub)^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>"CHARMM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"?, kcal/mol/Å^2, kJ/mol/nm^2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>"Å,nm"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8119,13 +8147,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -8160,10 +8188,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -8173,10 +8201,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -8189,7 +8217,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -8234,16 +8262,16 @@
         <v>15</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -8251,16 +8279,16 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"?, K2:kcal/mol/degrees^2 | K3:kcal/mol/degrees^3 | K4: kcal/mol/degrees^4, K2:kJ/mol/degrees^2 | K3:kJ/mol/degrees^3 | K4:kJ/mol/degrees^4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"K2*(Theta-Theta0)^2+K3*(Theta-Theta0)^3+K4*(Theta-Theta0)^4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"Class2"</formula1>
     </dataValidation>
   </dataValidations>

--- a/XML/Atomistic-Class2/WebFF-Class2-DataTemplate.xlsx
+++ b/XML/Atomistic-Class2/WebFF-Class2-DataTemplate.xlsx
@@ -8,53 +8,54 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Projects\WebFF-Documentation\XML\Atomistic-Class2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B8C690CD-E5D7-4840-8182-2564A4029ECD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71CAA07A-CF98-4465-8D3F-A36F88D21029}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="13980" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="20" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="57" r:id="rId1"/>
     <sheet name="Keywords" sheetId="21" r:id="rId2"/>
     <sheet name="KeywordsList" sheetId="50" state="hidden" r:id="rId3"/>
-    <sheet name="BondPotential-Harmonic" sheetId="1" r:id="rId4"/>
-    <sheet name="BondPotential-Class2" sheetId="36" r:id="rId5"/>
-    <sheet name="AnglePotential-Harmonic" sheetId="8" r:id="rId6"/>
-    <sheet name="AnglePotential-COS2" sheetId="9" r:id="rId7"/>
-    <sheet name="AnglePotential-CHARMM" sheetId="10" r:id="rId8"/>
-    <sheet name="AnglePotential-Class2" sheetId="38" r:id="rId9"/>
-    <sheet name="DihedralPotential-CHARMM" sheetId="11" r:id="rId10"/>
-    <sheet name="DihedralPotential-Harmonic" sheetId="12" r:id="rId11"/>
-    <sheet name="DihedralPotential-Quadratic" sheetId="13" r:id="rId12"/>
-    <sheet name="DihedralPotential-OPLS" sheetId="14" r:id="rId13"/>
-    <sheet name="DihedralPotential-FourierSimple" sheetId="29" r:id="rId14"/>
-    <sheet name="DihedralPotential-Fourier" sheetId="34" r:id="rId15"/>
-    <sheet name="DihedralPotential-Class2" sheetId="39" r:id="rId16"/>
-    <sheet name="ImproperPotential-CVFF" sheetId="15" r:id="rId17"/>
-    <sheet name="ImproperPotential-COS2" sheetId="16" r:id="rId18"/>
-    <sheet name="ImproperPotential-Harmonic" sheetId="17" r:id="rId19"/>
-    <sheet name="ImproperPotential-Fourier" sheetId="18" r:id="rId20"/>
-    <sheet name="ImproperPotential-Umbrella" sheetId="19" r:id="rId21"/>
-    <sheet name="ImproperPotential-CHARMM" sheetId="35" r:id="rId22"/>
-    <sheet name="ImproperPotential-Class2" sheetId="40" r:id="rId23"/>
-    <sheet name="NonBondPotential-LJ-Rmin" sheetId="55" r:id="rId24"/>
-    <sheet name="NonBondPotential-Class2" sheetId="25" r:id="rId25"/>
-    <sheet name="CrossPotential-BondBond" sheetId="41" r:id="rId26"/>
-    <sheet name="CrossPotential-BondBond13" sheetId="42" r:id="rId27"/>
-    <sheet name="CrossPotential-AngleAngle" sheetId="43" r:id="rId28"/>
-    <sheet name="CrossPotential-BondAngle" sheetId="44" r:id="rId29"/>
-    <sheet name="CrossPotential-MiddleBondTorsio" sheetId="45" r:id="rId30"/>
-    <sheet name="CrossPotential-EndBondTorsion" sheetId="46" r:id="rId31"/>
-    <sheet name="CrossPotential-AngleTorsion" sheetId="47" r:id="rId32"/>
-    <sheet name="CrossPotential-AngleAngleTorsio" sheetId="48" r:id="rId33"/>
-    <sheet name="EquivalenceTable" sheetId="27" r:id="rId34"/>
-    <sheet name="AutoEquivalenceTable" sheetId="33" r:id="rId35"/>
-    <sheet name="BondIncrements" sheetId="28" r:id="rId36"/>
-    <sheet name="AtomType-ATDL" sheetId="30" r:id="rId37"/>
-    <sheet name="AtomType-DFF" sheetId="51" r:id="rId38"/>
-    <sheet name="AtomType-Generic" sheetId="52" r:id="rId39"/>
-    <sheet name="Atom-Attributes-DFF" sheetId="31" r:id="rId40"/>
-    <sheet name="Atom-Attributes-Generic" sheetId="53" r:id="rId41"/>
-    <sheet name="RelationTree-DFF" sheetId="54" r:id="rId42"/>
+    <sheet name="References" sheetId="56" r:id="rId4"/>
+    <sheet name="BondPotential-Harmonic" sheetId="1" r:id="rId5"/>
+    <sheet name="BondPotential-Class2" sheetId="36" r:id="rId6"/>
+    <sheet name="AnglePotential-Harmonic" sheetId="8" r:id="rId7"/>
+    <sheet name="AnglePotential-COS2" sheetId="9" r:id="rId8"/>
+    <sheet name="AnglePotential-CHARMM" sheetId="10" r:id="rId9"/>
+    <sheet name="AnglePotential-Class2" sheetId="38" r:id="rId10"/>
+    <sheet name="DihedralPotential-CHARMM" sheetId="11" r:id="rId11"/>
+    <sheet name="DihedralPotential-Harmonic" sheetId="12" r:id="rId12"/>
+    <sheet name="DihedralPotential-Quadratic" sheetId="13" r:id="rId13"/>
+    <sheet name="DihedralPotential-OPLS" sheetId="14" r:id="rId14"/>
+    <sheet name="DihedralPotential-FourierSimple" sheetId="29" r:id="rId15"/>
+    <sheet name="DihedralPotential-Fourier" sheetId="34" r:id="rId16"/>
+    <sheet name="DihedralPotential-Class2" sheetId="39" r:id="rId17"/>
+    <sheet name="ImproperPotential-CVFF" sheetId="15" r:id="rId18"/>
+    <sheet name="ImproperPotential-COS2" sheetId="16" r:id="rId19"/>
+    <sheet name="ImproperPotential-Harmonic" sheetId="17" r:id="rId20"/>
+    <sheet name="ImproperPotential-Fourier" sheetId="18" r:id="rId21"/>
+    <sheet name="ImproperPotential-Umbrella" sheetId="19" r:id="rId22"/>
+    <sheet name="ImproperPotential-CHARMM" sheetId="35" r:id="rId23"/>
+    <sheet name="ImproperPotential-Class2" sheetId="40" r:id="rId24"/>
+    <sheet name="NonBondPotential-LJ-Rmin" sheetId="55" r:id="rId25"/>
+    <sheet name="NonBondPotential-Class2" sheetId="25" r:id="rId26"/>
+    <sheet name="CrossPotential-BondBond" sheetId="41" r:id="rId27"/>
+    <sheet name="CrossPotential-BondBond13" sheetId="42" r:id="rId28"/>
+    <sheet name="CrossPotential-AngleAngle" sheetId="43" r:id="rId29"/>
+    <sheet name="CrossPotential-BondAngle" sheetId="44" r:id="rId30"/>
+    <sheet name="CrossPotential-MiddleBondTorsio" sheetId="45" r:id="rId31"/>
+    <sheet name="CrossPotential-EndBondTorsion" sheetId="46" r:id="rId32"/>
+    <sheet name="CrossPotential-AngleTorsion" sheetId="47" r:id="rId33"/>
+    <sheet name="CrossPotential-AngleAngleTorsio" sheetId="48" r:id="rId34"/>
+    <sheet name="EquivalenceTable" sheetId="27" r:id="rId35"/>
+    <sheet name="AutoEquivalenceTable" sheetId="33" r:id="rId36"/>
+    <sheet name="BondIncrements" sheetId="28" r:id="rId37"/>
+    <sheet name="AtomType-ATDL" sheetId="30" r:id="rId38"/>
+    <sheet name="AtomType-DFF" sheetId="51" r:id="rId39"/>
+    <sheet name="AtomType-Generic" sheetId="52" r:id="rId40"/>
+    <sheet name="Atom-Attributes-DFF" sheetId="31" r:id="rId41"/>
+    <sheet name="Atom-Attributes-Generic" sheetId="53" r:id="rId42"/>
+    <sheet name="RelationTree-DFF" sheetId="54" r:id="rId43"/>
   </sheets>
   <definedNames>
     <definedName name="KeywordListTab_1" localSheetId="2">KeywordsList!$A$2:$A$74</definedName>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="314">
   <si>
     <t>Harmonic</t>
   </si>
@@ -217,9 +218,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Protocol</t>
-  </si>
-  <si>
     <t>Keywords</t>
   </si>
   <si>
@@ -994,13 +992,34 @@
     <t>epsilon*[2*(Rmin/R)^9-3*(Rmin/R)^6]</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
     <t>Data Contact (Name)</t>
+  </si>
+  <si>
+    <t>Additional References</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Schema Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Force-Field Protocol</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1373,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1402,9 +1421,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1457,6 +1473,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1475,10 +1497,34 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,28 +1882,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9435C-645C-4256-8AD9-DAE05BFFE463}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="52" style="31" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="31" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -1865,9 +1911,9 @@
     </row>
     <row r="3" spans="1:2" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="37"/>
     </row>
     <row r="4" spans="1:2" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
@@ -1875,85 +1921,92 @@
     </row>
     <row r="5" spans="1:2" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="34"/>
+        <v>311</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="77"/>
+      <c r="A6" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="34"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="B9" s="35"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="B9" s="34"/>
+    </row>
+    <row r="10" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="35"/>
+    </row>
+    <row r="11" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="36"/>
-    </row>
-    <row r="11" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="36"/>
     </row>
     <row r="12" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="37"/>
+        <v>67</v>
+      </c>
+      <c r="B12" s="61"/>
     </row>
     <row r="13" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="B13" s="34"/>
     </row>
     <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="37"/>
+        <v>305</v>
+      </c>
+      <c r="B14" s="36"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="B15" s="36"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="62"/>
+        <v>70</v>
+      </c>
+      <c r="B16" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6" xr:uid="{625A1D34-E7D9-4438-BF9C-8FF77B22D9EB}">
-      <formula1>"?, Atomistic - Class I, Atomistic - Class II, Atomistic - Bond Order, Atomistic - ReaxFF, Atomistic - Polarizable, Atomistic - United Atom (UA), Coarse-Grained (CG) - Pseudo-Atom"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{98061E2D-2DAD-4F6C-BD12-48EB00C4402F}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{05B378AB-5EA9-4BBA-AD39-118338EF952C}">
+      <formula1>"1.0.0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{F7DE8B3C-2EAD-424C-83BA-7351AFCDD1A8}">
+      <formula1>"?, Atomistic - Class I, Atomistic - Class II, Atomistic - Water Model, Coarse-Grained"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{A89EAE5C-87C4-4B64-8584-2DDF67019CFA}">
       <formula1>"Mixed-English,Mixed-Metric,Reduced"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1963,6 +2016,157 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>"degrees"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0800-000001000000}">
+      <formula1>"?, K2:kcal/mol/degrees^2 | K3:kcal/mol/degrees^3 | K4: kcal/mol/degrees^4, K2:kJ/mol/degrees^2 | K3:kJ/mol/degrees^3 | K4:kJ/mol/degrees^4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0800-000002000000}">
+      <formula1>"K2*(Theta-Theta0)^2+K3*(Theta-Theta0)^3+K4*(Theta-Theta0)^4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0800-000003000000}">
+      <formula1>"Class2"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -1993,7 +2197,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -2005,22 +2209,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -2032,7 +2236,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -2075,20 +2279,20 @@
         <v>30</v>
       </c>
       <c r="H9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="J9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="8"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" s="8"/>
@@ -2125,7 +2329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2155,7 +2359,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -2167,7 +2371,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>34</v>
@@ -2179,10 +2383,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -2194,7 +2398,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -2225,13 +2429,13 @@
         <v>29</v>
       </c>
       <c r="H8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2290,7 +2494,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>36</v>
@@ -2302,7 +2506,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>37</v>
@@ -2314,10 +2518,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -2329,7 +2533,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -2369,13 +2573,13 @@
         <v>30</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2401,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2433,7 +2637,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
@@ -2445,7 +2649,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>38</v>
@@ -2457,10 +2661,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -2469,10 +2673,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -2506,13 +2710,13 @@
         <v>42</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2535,7 +2739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2566,10 +2770,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -2578,10 +2782,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="5"/>
       <c r="G4" s="5" t="s">
@@ -2590,10 +2794,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -2602,10 +2806,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="G6" s="5" t="s">
@@ -2638,16 +2842,16 @@
         <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="L8" s="43" t="s">
         <v>122</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2695,10 +2899,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5"/>
       <c r="I3" s="5" t="s">
@@ -2707,10 +2911,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="5"/>
       <c r="I4" s="5" t="s">
@@ -2719,10 +2923,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -2731,10 +2935,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="I6" s="5" t="s">
@@ -2743,7 +2947,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -2754,72 +2958,72 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:22" s="47" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:22" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="H9" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="45" t="s">
+      <c r="J9" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="K9" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="45" t="s">
+      <c r="M9" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="N9" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="N9" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="45" t="s">
+      <c r="P9" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="Q9" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="R9" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="Q9" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="R9" s="45" t="s">
+      <c r="S9" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="S9" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="U9" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="U9" s="46" t="s">
+      <c r="V9" s="45" t="s">
         <v>122</v>
-      </c>
-      <c r="V9" s="46" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2845,7 +3049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8064A2"/>
@@ -2875,10 +3079,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="5"/>
       <c r="F3" s="5" t="s">
@@ -2887,10 +3091,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="5"/>
       <c r="F4" s="5" t="s">
@@ -2899,10 +3103,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -2911,10 +3115,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -2923,19 +3127,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="49" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
@@ -2958,22 +3162,22 @@
         <v>41</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="M9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +3203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
@@ -3024,7 +3228,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -3044,10 +3248,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -3059,10 +3263,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -3074,10 +3278,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3089,10 +3293,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -3125,7 +3329,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>35</v>
@@ -3134,54 +3338,54 @@
         <v>29</v>
       </c>
       <c r="H8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -3209,7 +3413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
@@ -3233,7 +3437,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -3251,7 +3455,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -3265,10 +3469,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -3279,10 +3483,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3293,10 +3497,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -3307,7 +3511,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -3341,50 +3545,50 @@
         <v>28</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -3402,146 +3606,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1100-000004000000}">
       <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <tabColor theme="2" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1200-000000000000}">
-      <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1200-000001000000}">
-      <formula1>"Harmonic"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1200-000002000000}">
-      <formula1>"Ki*(Chi-Chi0)^2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1200-000003000000}">
-      <formula1>"? , kcal/degrees^2, kcal/radians^2, kJ/degrees^2, kJ/radians^2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1200-000004000000}">
-      <formula1>"degrees"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3569,17 +3633,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="71"/>
+      <c r="A1" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="12"/>
     </row>
@@ -3589,10 +3653,10 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,6 +3684,146 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1200-000000000000}">
+      <formula1>"?,cis,trans,cis:right,cis:left,trans:right,trans:left"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1200-000001000000}">
+      <formula1>"Harmonic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1200-000002000000}">
+      <formula1>"Ki*(Chi-Chi0)^2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1200-000003000000}">
+      <formula1>"? , kcal/degrees^2, kcal/radians^2, kJ/degrees^2, kJ/radians^2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1200-000004000000}">
+      <formula1>"degrees"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
@@ -3644,15 +3848,15 @@
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5"/>
       <c r="F3" s="5" t="s">
@@ -3661,10 +3865,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="5"/>
       <c r="F4" s="5" t="s">
@@ -3673,10 +3877,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -3685,10 +3889,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -3710,25 +3914,25 @@
         <v>28</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>60</v>
-      </c>
       <c r="I8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
@@ -3776,15 +3980,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5"/>
       <c r="G3" s="5" t="s">
@@ -3793,10 +3997,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="5"/>
       <c r="G4" s="5" t="s">
@@ -3805,10 +4009,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -3817,10 +4021,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="G6" s="5" t="s">
@@ -3829,7 +4033,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -3854,19 +4058,19 @@
         <v>28</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +4096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
@@ -3917,12 +4121,12 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -3934,22 +4138,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3961,7 +4165,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -4004,13 +4208,13 @@
         <v>30</v>
       </c>
       <c r="H9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="J9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4035,7 +4239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
@@ -4058,16 +4262,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -4076,10 +4280,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -4088,10 +4292,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -4100,10 +4304,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -4112,7 +4316,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -4122,7 +4326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="51" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>4</v>
@@ -4137,19 +4341,19 @@
         <v>28</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4174,7 +4378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -4196,7 +4400,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4204,10 +4408,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -4215,10 +4419,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4226,10 +4430,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4237,10 +4441,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4248,10 +4452,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -4260,22 +4464,22 @@
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>74</v>
-      </c>
       <c r="C9" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4301,7 +4505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -4323,7 +4527,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4331,10 +4535,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -4342,10 +4546,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4353,10 +4557,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4364,10 +4568,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4375,10 +4579,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -4387,22 +4591,22 @@
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>74</v>
-      </c>
       <c r="C9" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4428,7 +4632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4448,21 +4652,21 @@
     <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="39"/>
+    <col min="10" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -4477,10 +4681,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -4494,10 +4698,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4511,10 +4715,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4528,10 +4732,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4565,22 +4769,22 @@
         <v>11</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4605,7 +4809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4625,22 +4829,22 @@
     <col min="8" max="8" width="36.140625" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="39"/>
+    <col min="11" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -4656,10 +4860,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -4674,10 +4878,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4692,10 +4896,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4710,10 +4914,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4755,19 +4959,19 @@
         <v>29</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4792,7 +4996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4817,16 +5021,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="5"/>
       <c r="H3" s="5" t="s">
@@ -4835,10 +5039,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="5"/>
       <c r="H4" s="5" t="s">
@@ -4847,10 +5051,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="5"/>
       <c r="H5" s="5" t="s">
@@ -4859,7 +5063,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -4867,11 +5071,11 @@
       <c r="C6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="51" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:13" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:13" s="49" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>4</v>
       </c>
@@ -4885,31 +5089,31 @@
         <v>28</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="M8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4929,203 +5133,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="6" width="18" customWidth="1"/>
-    <col min="7" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1C00-000000000000}">
-      <formula1>"?, Å, nm"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1C00-000001000000}">
-      <formula1>"?, kcal/Å^2, kJ/nm^2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1C00-000002000000}">
-      <formula1>"N1*(R-R1)*(Theta-Theta0)+N2*(R-R2)*(Theta-Theta0)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1C00-000003000000}">
-      <formula1>"BondAngle"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5176,372 +5183,372 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5550,6 +5557,203 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="6" width="18" customWidth="1"/>
+    <col min="7" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1C00-000000000000}">
+      <formula1>"?, Å, nm"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-1C00-000001000000}">
+      <formula1>"?, kcal/Å^2, kJ/nm^2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-1C00-000002000000}">
+      <formula1>"N1*(R-R1)*(Theta-Theta0)+N2*(R-R2)*(Theta-Theta0)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-1C00-000003000000}">
+      <formula1>"BondAngle"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5569,23 +5773,23 @@
     <col min="9" max="9" width="36.140625" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="39"/>
+    <col min="12" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -5602,12 +5806,12 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="52"/>
+        <v>174</v>
+      </c>
+      <c r="C3" s="51"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -5621,12 +5825,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="52"/>
+        <v>208</v>
+      </c>
+      <c r="C4" s="51"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -5640,12 +5844,12 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="52"/>
+        <v>205</v>
+      </c>
+      <c r="C5" s="51"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -5659,12 +5863,12 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="52"/>
+        <v>190</v>
+      </c>
+      <c r="C6" s="51"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>24</v>
@@ -5703,25 +5907,25 @@
         <v>28</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5746,7 +5950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5766,27 +5970,27 @@
     <col min="13" max="13" width="36.140625" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="39"/>
+    <col min="16" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -5807,16 +6011,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="52"/>
+        <v>180</v>
+      </c>
+      <c r="C3" s="51"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="54" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="53" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="15"/>
@@ -5830,16 +6034,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="52"/>
+        <v>209</v>
+      </c>
+      <c r="C4" s="51"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="15"/>
@@ -5853,16 +6057,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="52"/>
+        <v>205</v>
+      </c>
+      <c r="C5" s="51"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="15"/>
@@ -5876,16 +6080,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="52"/>
+        <v>205</v>
+      </c>
+      <c r="C6" s="51"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="15"/>
@@ -5899,16 +6103,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="52"/>
+        <v>190</v>
+      </c>
+      <c r="C7" s="51"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="15"/>
@@ -5951,37 +6155,37 @@
         <v>28</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>60</v>
-      </c>
       <c r="J9" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="O9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6006,7 +6210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -6026,27 +6230,27 @@
     <col min="13" max="13" width="36.140625" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="39"/>
+    <col min="16" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -6055,8 +6259,8 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -6067,17 +6271,17 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="52"/>
+        <v>185</v>
+      </c>
+      <c r="C3" s="51"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="54" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="53" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="15"/>
@@ -6090,17 +6294,17 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="52"/>
+        <v>210</v>
+      </c>
+      <c r="C4" s="51"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="15"/>
@@ -6113,17 +6317,17 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="52"/>
+        <v>206</v>
+      </c>
+      <c r="C5" s="51"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="15"/>
@@ -6136,18 +6340,18 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="52"/>
+        <v>206</v>
+      </c>
+      <c r="C6" s="51"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53" t="s">
-        <v>92</v>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="52" t="s">
+        <v>91</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -6159,18 +6363,18 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53" t="s">
-        <v>147</v>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52" t="s">
+        <v>146</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -6187,8 +6391,8 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -6211,37 +6415,37 @@
         <v>28</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M9" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="O9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6266,7 +6470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -6286,29 +6490,29 @@
     <col min="8" max="8" width="36.140625" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="39"/>
+    <col min="11" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -6317,14 +6521,14 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="53" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="15"/>
@@ -6335,14 +6539,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="53" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="15"/>
@@ -6353,14 +6557,14 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="53" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="15"/>
@@ -6371,15 +6575,15 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="54" t="s">
-        <v>147</v>
+      <c r="C6" s="51"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="53" t="s">
+        <v>146</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -6392,7 +6596,7 @@
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="55"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -6413,22 +6617,22 @@
         <v>28</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6454,7 +6658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -6475,61 +6679,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
+      <c r="B3" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="G5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="I5" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6542,7 +6746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -6569,81 +6773,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
+      <c r="B3" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="L5" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="M5" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6655,7 +6859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
@@ -6677,51 +6881,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>90</v>
-      </c>
       <c r="E5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6732,7 +6936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -6752,27 +6956,27 @@
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="43"/>
+    <col min="9" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -6781,90 +6985,90 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>104</v>
+      <c r="D6" s="64" t="s">
+        <v>103</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6880,7 +7084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -6900,25 +7104,25 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="43"/>
+    <col min="7" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="A1" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -6927,74 +7131,74 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>292</v>
+        <v>97</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>291</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -7007,7 +7211,188 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B066E-C73F-4DA4-9B41-05C1DDD43D22}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
+    </row>
+    <row r="3" spans="1:4" ht="25.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="83" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="81"/>
+    </row>
+    <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -7027,25 +7412,25 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="43"/>
+    <col min="7" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -7054,74 +7439,74 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="67" t="s">
         <v>97</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>96</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7137,166 +7522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"Harmonic"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0300-000001000000}">
-      <formula1>"K*(R-R0)^2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0300-000002000000}">
-      <formula1>"?, kcal/mol/Å^2, kJ/mol/nm^2"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0300-000003000000}">
-      <formula1>"?, Å, nm"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -7323,7 +7549,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7331,41 +7557,41 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>295</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7377,7 +7603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -7405,7 +7631,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7413,45 +7639,45 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7463,7 +7689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -7482,10 +7708,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="70"/>
+      <c r="A1" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:2" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -7493,19 +7719,19 @@
     </row>
     <row r="3" spans="1:2" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="37"/>
     </row>
     <row r="4" spans="1:2" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2" ht="338.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="69"/>
+      <c r="A5" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7516,6 +7742,165 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"Harmonic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>"K*(R-R0)^2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0300-000002000000}">
+      <formula1>"?, kcal/mol/Å^2, kJ/mol/nm^2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0300-000003000000}">
+      <formula1>"?, Å, nm"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7535,21 +7920,21 @@
     <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="39"/>
+    <col min="10" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -7564,12 +7949,12 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="48"/>
+        <v>140</v>
+      </c>
+      <c r="C3" s="47"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -7581,12 +7966,12 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="49"/>
+        <v>141</v>
+      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -7601,9 +7986,9 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="49"/>
+        <v>211</v>
+      </c>
+      <c r="C5" s="48"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -7618,9 +8003,9 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="49"/>
+        <v>190</v>
+      </c>
+      <c r="C6" s="48"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>24</v>
@@ -7661,13 +8046,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -7692,7 +8077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -7719,21 +8104,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -7744,7 +8129,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -7758,7 +8143,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -7793,16 +8178,16 @@
         <v>15</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -7828,7 +8213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -7855,21 +8240,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -7881,7 +8266,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
@@ -7896,7 +8281,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -7933,16 +8318,16 @@
         <v>15</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -7968,7 +8353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -7993,23 +8378,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
@@ -8021,7 +8406,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -8036,7 +8421,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -8060,7 +8445,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -8072,7 +8457,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
@@ -8105,16 +8490,16 @@
         <v>26</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I10" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8144,155 +8529,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFC0504D"/>
-  </sheetPr>
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>"degrees"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0800-000001000000}">
-      <formula1>"?, K2:kcal/mol/degrees^2 | K3:kcal/mol/degrees^3 | K4: kcal/mol/degrees^4, K2:kJ/mol/degrees^2 | K3:kJ/mol/degrees^3 | K4:kJ/mol/degrees^4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0800-000002000000}">
-      <formula1>"K2*(Theta-Theta0)^2+K3*(Theta-Theta0)^3+K4*(Theta-Theta0)^4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0800-000003000000}">
-      <formula1>"Class2"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/XML/Atomistic-Class2/WebFF-Class2-DataTemplate.xlsx
+++ b/XML/Atomistic-Class2/WebFF-Class2-DataTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Projects\WebFF-Documentation\XML\Atomistic-Class2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71CAA07A-CF98-4465-8D3F-A36F88D21029}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B2DEBD-0326-4035-8794-F6F25E2CAFCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13980" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="13980" windowHeight="8190" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="57" r:id="rId1"/>
@@ -65,6 +65,5468 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{186FADCF-4AFC-4E18-9993-ED90F10891B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{2826C67C-C64C-4329-9FBF-654808E17680}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{744E9D87-BB1A-4C53-A442-A42E50E6C876}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{0991FF64-5041-462E-B8DA-D6B1EE79E9BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{900F2F91-8F35-4DE9-8B95-222E7EA45955}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{D24EBF4F-ED7E-492A-841C-CD3ADFAF66E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{7894F0FE-FC72-485B-B046-CCC10908BDD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{AD0480C2-826D-4388-AB09-EC8493FB48DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{E0674122-CF16-474E-A233-9A5772975D8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{2AE2303A-A0C5-4A99-9BCC-223DD56C3A1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{4F1E5E04-7C5B-4B80-9188-3B6745CC5125}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{3A3B62C3-FA9E-42A9-AE46-D4B2FE1D4673}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{B626E13E-D0D8-4DC5-85A8-7A5A5A0875B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{BC1E27C7-1BD7-46B4-ADCC-97D9CB6EF712}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{02245A61-2D8C-45A1-A24E-C10F6EF241E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{34963A12-6ED1-4D66-BD21-FE4915116781}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{209A1DB5-B12A-42A4-99F3-F8000D3D1391}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{DF658D99-B596-4C7A-A3D5-4F2465FEEE3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{72C08579-3F29-48A1-9F67-1BF8C03136D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0929426D-68B3-4455-97E7-48D2C88E0285}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{5D70801F-4792-45F1-AD1D-FD2370713520}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{257696C7-9ACD-4FB8-B17A-920868F1D0A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{D14DB304-7943-4A5C-8520-FC620851E4D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{19B1E7E4-5A93-4342-89A8-940DE4F5C559}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{A47534B5-76CC-4398-833D-1E3C21C6D1D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{20AF3910-C21B-4123-8A8B-0A6CC2BA529C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{B7743794-33A1-4DEC-931E-7F2D72E906B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{22B39950-D765-491F-9019-29F63C9527A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{0BAA89E7-B6E5-4EEF-94A8-2FA9458A346A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{3E12EC9B-AD91-42DC-9C2E-CF5E7FE903FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{4CB1DCF3-4EFD-4B60-89EE-27E50DFA16D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{1AB83D5D-D2A4-4E24-9EE2-D3A643C40EBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{E411CE6D-FD62-4B29-A569-53F3A40DCD88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{D734F4A8-7DFB-46FB-B62B-89511B6DB95F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{489487AD-138A-4B49-8998-92C5CC49ABA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{51E9DA9B-FD5D-41C0-B6CE-F969B73F565A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{6929C6D5-1BA6-410C-A375-C804376F904D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{CE0AD732-A881-4DCA-96DB-4ABA8B595879}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{B7D8AC8F-474F-4D28-BC0C-4EC4BCEBF055}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{D751F644-22C9-4841-B92B-07B8B3654688}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{737CB9F6-2045-4F55-831C-46C85332F363}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{7A1D575B-FDEA-40D9-B9A0-341821D864A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{3593EC9D-F32C-4879-8B15-2DB18F8C2C56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{F53F06F0-8ED5-4F71-94B7-58B45B99AB79}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{27727030-C7C9-443B-92B4-9CF5442FDEA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T9" authorId="0" shapeId="0" xr:uid="{8252BCCD-86E3-481B-99EF-BD464DBFF600}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U9" authorId="0" shapeId="0" xr:uid="{8F08131B-9757-4A50-8EAA-39A7CAC39B52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V9" authorId="0" shapeId="0" xr:uid="{C9291806-444A-42A8-8EF7-BF5B7CB7F628}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{CF773C94-8324-4AD2-87CB-22051B8A81DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A6199316-677B-4EAA-961D-AF341FDC0B0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{54142A0C-F360-4CDA-A26F-22846A563EC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{BFE736BA-3C2F-4028-BD61-477D26E6619C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{D6CD1EB3-1084-415E-A1D9-6362C31E3F9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{9FAF897A-84F3-4984-80C0-CECF1623D2DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{547A44D9-62B8-47A8-9FF7-AB9C04EA051C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{9DBA37EB-BBE9-4680-B565-9792672A7AA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{70E811A2-A751-405C-A2BD-892AB7262A33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{17197FA9-E429-468A-BB49-99C3DF92BC95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{4DCC7271-B778-4EBD-B43B-CF2ABC21BF0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{F07BE1CA-7A54-440E-BC8D-7F6D0E5DFA77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{D9398BF0-BAF8-4040-8140-49BB0B6EB910}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{326CF41F-C8DD-46F7-BC82-6167016379E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{988E0753-C741-4DDA-8C6F-2F7710B0D1CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{913339F5-B3FE-478C-A6A5-F86595395A77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D18587C4-46DF-4BEE-903A-0CC9E542F01A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{66FC04ED-495F-4A50-863F-7ABB509176B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{646CA4C0-ECEB-444E-BC3F-5AE45A3FA75F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{517F7AA0-3622-4A64-932F-CE5366184725}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{E07354E9-604A-4E63-AF61-65F4C20C2BF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{13655967-C3AD-45DE-8513-AEA1CC861A28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{0C5F4B35-4D29-4F8D-8A1F-8E07C9133336}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{2F897BF8-11A6-4D41-AB59-1F3DC06CF59E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{B379E2AA-2412-4813-8ECC-FB1F46EA883C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{C057E514-6EBD-4F3B-8B4D-3792EEB48AC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{DBF4C0B9-0454-4B4D-BD3C-CDC990A399AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{030C4087-6B8B-4573-AC5C-5CE36ECAD9B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{8C2E455D-0AC7-4C7C-AC56-E6697E689895}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{90A00654-8E11-4ED7-A7DC-C142719217BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{67EFB41C-2417-4C27-AAEC-13901719C698}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{F06E6705-EC8B-4667-87C4-4004189CC26B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{69E443DD-8D6D-4096-BAEE-63C9D1E9AFBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{01220225-DDA5-46F2-A830-3FBAD0A7C0F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{03BA7D48-B7DA-4B7D-824F-EC4562337E18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{4CB7D916-7FAC-45F0-B1D3-53E493BAD30F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{AF370357-69B1-4B7A-AC7B-3F74DCCB9BED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{311C5EB8-B45B-4443-86B2-2D753D59857B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{B6F1C0B2-5F95-4877-AC80-8BF97EF11E33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{42BDEDCA-1F79-4C20-BEDD-0D77D8F0F593}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0AAA531C-ACB0-44F8-86E8-5601D496DBE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{B0A03EA8-1B42-470B-ADCE-09EA720523B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{AA18DA85-5FE9-4392-82B3-B6B729D985EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{5BBC43D7-7C6F-466C-9F65-2326BEC0BC5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{2ACEC1B4-0DBE-4DBE-A871-28367717D8EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{A36D44A3-EAB1-491E-B3A3-E2DC71F10155}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{7DBB97FB-CD67-4A7E-8670-330C7997CD4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{E87CAC32-A811-49AF-ACD9-F482060277A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{9E8B76D4-A5FF-4857-8570-664CE64AA7EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{FC6572C5-F7BE-447A-B05F-11E1939B7FE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{FC89AF2E-D6AF-43EF-B41D-F08A55731D18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{4CA87B56-B60F-4CFA-B7E6-F63C09F5AF1F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{2551B2FE-42EC-4542-BE5F-84A672CC8A59}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{6C15A594-742A-4A3C-92EC-5E5BD0A9F1C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{5B7ABFC5-90BC-4B24-9F11-4DCC700F2ABC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{6955DD68-7475-4E78-B2E5-BE44D414D14B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{93C5322A-5642-47AF-B2A2-2FB08EAC6902}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{B5C0509B-D7C7-47C6-B1F4-3BE1A3D9CA7C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{4A509B7E-824C-4133-9F2D-73E7CC422B9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{7C49877A-B99E-4644-AA29-720AF4A43F10}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{1B669126-8B25-483E-8C31-D9481B3BE9D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{2D50682C-8E3C-4625-BE41-7A5128CEC9F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{EBAA1CAF-F86C-4FA0-A655-CF5743B415D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{45CB9080-6677-4E7C-B3FD-6F11FFC5A076}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{32F2E1DD-253F-4667-AB85-1981D0640BC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{E732CD26-312F-47F2-8759-6345D81DEC61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{57E3FE09-523A-4254-944E-DE6750976C4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{D8304252-7931-40A7-9569-B0B5CFCFD129}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{43222553-99F1-4529-9AF7-14A1799D457C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{7AB7A098-FD72-4D2B-BAC1-2DC10850C4E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{9A2414A3-B57C-477D-9926-E011D4F338EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C86AA633-7C3C-4B77-8145-F3FC7822FBBC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{5964F0AD-88BF-44D5-9359-48F796FBD3E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{B8AE5B48-E8FD-48F1-8666-2AE11BB160B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{3A448E87-A078-4C8A-8C83-71AC60C2B163}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{C1D9AC7A-B3F9-43FF-9389-07640DB467FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{AD4AB49F-B3D8-4FE0-A94E-18CBA1B607FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{66C94FF3-1974-43D1-B882-FC7B05E9CCF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{3A10EB08-E52E-495A-BF13-37D7E1C05518}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{CDE7DF7C-16B8-4CC2-AC22-FA6E89554C81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{5D7873CA-018A-422B-AB3D-C3F9D8AD51BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{C86FC577-9846-4627-9D27-4BC3F0C441E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{732C42F3-8BDA-4847-87BC-4C6ED791AF8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{DF972DDF-8285-44C1-9FE3-C8508103A2D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{FCF4470C-1D27-4B0F-8E94-F56195C02BC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{4D31194F-A0F1-4684-B201-99F33CE0A431}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{EDC5C6CD-FB7C-4BA4-B35D-BB2F83A87389}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{D6A67784-06A5-42C5-8C32-41276E146E97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{C2CFEEFF-9FA2-4F90-95EF-9ADD247A33CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{C595C957-66FA-4DA6-9D4F-71DCA0E495EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{7F0498C9-24E0-48E4-84F8-82BB38ACAEE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{48166B92-24D7-4BF9-BC96-0644B5936124}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{255330F5-A8F3-4876-819B-B2F360CB6A76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments28.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C60F94AA-E9E4-4F33-AFD2-7F47DBE5599A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A2C9746B-D927-4082-8106-25BFCCF43923}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{755FB590-F474-49B7-B6AA-3697260A1CA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{E51161E8-A253-492E-A43F-428025D8CB65}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{9FC19637-0810-4285-8B54-CD4452F52DCA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{EFD2F683-5093-4625-AC04-072083BBE345}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{4C8520C5-B4FF-42A0-99FC-FFD9CC3CD922}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments29.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{1BBE0044-FE56-40A7-94D0-791B4F9695AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0EBB9A29-1E5B-4C18-AC64-0759856D1FB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{BBEA4888-DA83-4CA0-8CC2-02C055BE4494}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{2D346FF6-E541-4560-A9DD-2468361E147F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{2A8EF356-922F-4FF2-B303-0DE400FC0E17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{E1377BAC-48DD-4B44-8B30-FCFD1496AD32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{F4751C25-4DE8-4BB4-86BD-E467289957C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{778B768F-153C-4030-BDE9-5906CE10DC71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{E1C74908-C290-44EF-BF15-24BAA558F5E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{5F7D4C80-FCC3-4AD3-8CD9-5215F7BBE48F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments30.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{4A0C2C9B-0C3A-4B76-9657-3E532CC11EE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{1BFC4D08-ACCC-4479-AF2C-DFB4B5DD8766}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{373AF1B4-1D33-44F2-82BF-F131E3BDE3EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{A2CDE7DB-EEB6-41E2-935D-9C7C2A667C12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{D75FB258-9FBE-471D-95C5-3C5CA4BF8A54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{E5113C81-085F-4CB3-A89D-84EECE870943}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{0F9CE68A-6EED-462E-9A70-E3A1EA5C23DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments31.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{3529C90D-D3FD-4E09-AAB8-81F4D22CEE2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A3ABBDF4-E3B2-4EE4-B58D-F95DBB491EAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{0ED5066F-2C45-422B-92F7-CB3070FFEAB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{F163BD64-4BEB-400D-B255-01827959CA40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{944A2FF1-8BAC-4CB6-A59E-F92E06FFC06E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{21AFE00D-C31E-4A11-A3F2-9C0F0B7DA6AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{B28E34DD-C050-4B33-89D6-78EE259F879A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{631BD8B0-15EF-4BF4-A17F-ECD754549518}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments32.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{3871F948-814E-4EC6-B9DC-782DBDFFD55B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{805E923D-AB3F-4D0A-8401-A76453A42544}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{13B934AC-C43D-4564-902F-3BEE5CEEB337}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{108D10DF-411F-49D0-B0A0-045339A4E9D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{8F2A956F-9E81-48F8-8449-8399D250D7E2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{C666A450-DD56-47B1-B93B-4C1894A6C832}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{7B8FE53A-7EFD-41E2-A372-A9F49AE4AC55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{47EB2464-FDFF-42BE-AE27-FDAC882DEA6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments33.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{4E67DFB2-1454-462C-B622-6D5DA82C8B77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{5EBB3768-5A0E-4255-992D-87D753229460}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{34C4F508-0448-4272-ACB6-E813B4103B9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{18293D7A-322C-41E7-ABCD-0DDC31A2289F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{5409CF2C-DFCC-463A-891A-56D90D0A700F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{6B67E35C-9617-4B5D-A6DA-BCAA9D62A66A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{24D4C721-34A7-4557-878A-F3FECAAAB622}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments34.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{255D6084-7B83-44B5-A637-ACD49E1D5D90}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{71B6432C-9061-4125-9130-EF688542D702}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{9D7F3D8A-B505-441B-A804-F40B4632089F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments35.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{1D1872C0-EF31-4BC7-A2B0-69F0E34AA4E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{E095AF47-8AF3-4FE8-82F7-F63FDA563B6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{5EB0C67A-69B7-4DA5-A95C-EA8496F88948}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments36.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{319DA27E-1A8D-4187-B224-4B61C7F52944}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{C0F0B2CE-5E50-4363-A623-E4775F4534EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{0B521C18-08C9-42C6-8425-80E88D4C139D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments37.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{EA4E3FA8-D6CA-4620-BFA1-CEA2FC61AC45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{32BE18FF-DFD7-47FB-A06C-79A91E5B2EAA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{2FA4F54C-95B2-4940-9917-DCC8201E8138}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{735D89BB-C4CD-40DB-A4D3-8A83F14F54E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{36AE083A-DA8D-4E33-8A07-04317C6CA26E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{42D6DF46-99FD-4AFD-81AF-9B8C86FECAC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{49665792-FE53-457D-B75C-0D279BF7C830}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments38.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C7CF844A-A2AE-4E13-B77B-0CC8BF6BFAFE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{0F721BE6-AD64-40E6-BC4B-4B301213F221}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{332BDC57-A4A6-4278-BE40-474D668E75E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{07069308-588A-40EC-AEFB-6C208B571CCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{12BE6F2E-02F1-4B8F-B859-BF63D659AFA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{33268DF5-2B05-4332-BE1C-0AFCA44F3DE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments39.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{54D0C006-E4B8-4B32-BA5A-313FE36620F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{E3D783AC-BCFC-4A26-90D1-E9DBA7195C81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{43EF2A34-E281-474C-BF69-6342830AC140}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{098B8544-0D7F-4C26-9860-5F71791403AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{7FD54BAE-3422-45D7-8B48-12B75548082D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{77653C39-F6AE-4444-835A-6F6991DDB0F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{A5DE5161-B961-40AB-8ECC-C855702A3B52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{C6E05A33-C6FE-4625-9F13-FE4A4B65679B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{A691CAAD-CE07-4120-97A1-8EBFAD771CE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{EBDAAAF6-8B64-4CAC-978A-C446AE07C2C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{21C80C90-E4D0-436B-B138-099B6ECBF9D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{B2D61401-F21E-4A6C-B4BA-9A74418CCDBD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{13C7CA19-9900-4F9D-B8A0-7DF72369ABE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments40.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{9B26B387-1513-4EF4-8A5E-F86F6D35CCDA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{CC3DE9C8-6C4A-4FC5-A6AA-35A7B9962076}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{95778A87-E886-4993-96D3-50DF5E88DCF8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{D3554B7A-E6B5-4964-8C79-C2E34522FF52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{A1C70F53-8967-498A-BDFF-302B64D581F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{E71DF449-819C-4A87-8037-CAC77581461B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments41.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{D99319F4-FA05-400F-B541-AA5D8000AC4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{56E7831B-F972-45F3-AB2E-F1166D64BB8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{19C15406-085B-4623-A722-EEA29615457D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{8FFDC1FF-D7DF-48FE-B883-B2F9DDD67000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{A6640E25-77C8-4192-AC44-9FAF32FB720B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{5972EFC3-9856-48B4-A4B7-84F9F8E689CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{33EB9068-CE86-4756-82F8-E096804D7101}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments42.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{FA7F4858-0145-427F-86F4-41F66569952E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional entry, not required</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{400E22BC-209F-40DC-BA79-E6C218A23B6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{9B168959-E77E-400F-9B15-2CDB6F2C4484}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{097AD98E-7335-43E9-8FFB-3346B16CADED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{3E48CDE2-D9A1-4295-8BA1-77152AAFCFAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{A00992B1-8233-4FDD-8771-70F4C87E6DF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{EFDBC689-776A-48DD-A501-118A07B4C64C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{A4E0C8EB-1727-44A2-92DE-3FD4991052EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{C96364EE-6C83-4A6D-9B54-A894417372EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{C5778BE8-5FCE-43ED-B247-DDF94D023BED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{58A48F83-D7FE-48CD-A373-C06404AD6344}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{913237D8-F236-47E7-B8C0-856B4BF47835}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{1F558B8E-BAF8-41EE-8658-EB85626B7994}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{9993F423-121F-4B4E-8DA4-16F47565E1EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{A030EA65-9FE4-4713-9499-6390308B6744}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{D9AC5945-6F6E-481E-8302-8FE679045D31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{7CB162CC-7C9B-4DB8-99CE-5D192FA4E688}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{B2897ED8-11E6-4F1E-AD09-791A34C26209}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{1ABF6C68-9D56-4463-B57B-954A39A67065}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{DF3CB3E4-CFB1-4EF5-A671-8F48876087C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{6C32F1CC-E89F-4C6B-A7AA-F317D57B7B9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{3873F08B-C918-45B7-A424-F7BEC1DC7D97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{320E8654-BC45-44DC-87BE-7469A86CA160}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{0DF15BE0-72C9-4D50-8FCC-4D1A8AEAC75C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{FC9AF159-CB48-4C23-B6F8-71B3FD97351C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{F77D8B00-5E0E-4818-AB4E-D2B531A23608}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{603EA607-5993-4395-88E6-D3E78F372CA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{7E1B4058-1E0D-4B38-A464-E3C1238EEF1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{41FC70E5-8D71-4AB5-8A8D-DCBEF25081D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{163B7A21-D1F7-49F9-9256-A5BA7D908726}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{4FBE44D4-E14C-4E46-91D6-23269BEFFE9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{5C3045DC-9C2C-483A-A656-6B7E7AD33639}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{6A6C20C8-EEFF-47A4-BB3A-E9BD0D83ED32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{8EBB059B-FD0D-446D-802C-5DD6AFF661FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Odharo, Azeza L. (Assoc)</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{3B97124E-FD79-4C09-BB6B-3CA86CFB1BAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{3D4F97F9-3F31-4729-817C-B36FAF342D4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{F6E3FFBF-ED7B-477B-89B1-4126606169FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{009E7244-B19B-4C74-8762-3161A94D6CD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Attribute data, required entry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{67F2C71A-4E7E-4D4E-825E-B8682E76ABB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{068122E1-B9AF-4CC1-8F8E-035B18B7CF70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{FB25F79A-CC8D-4B0A-934B-1E1556EA69C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{F7DAC1B5-F8E8-405C-B485-0B773E6B02D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional attribute data, not required</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="KeywordListTab" type="6" refreshedVersion="6" background="1" saveData="1">
@@ -78,7 +5540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="300">
   <si>
     <t>Harmonic</t>
   </si>
@@ -647,63 +6109,24 @@
     <t>ATDL</t>
   </si>
   <si>
-    <t>kJ/mol/nm^2</t>
-  </si>
-  <si>
     <t>nm</t>
   </si>
   <si>
-    <t>kJ/mol/degrees^2</t>
-  </si>
-  <si>
     <t>Kd*[1+cos(N*Phi-Phi0)]</t>
   </si>
   <si>
-    <t>cis</t>
-  </si>
-  <si>
-    <t>kJ</t>
-  </si>
-  <si>
-    <t>cis:right</t>
-  </si>
-  <si>
     <t>K1*[1+cos(N1*Phi-D1)]+K2*[1+cos(N2*Phi-D2)]+K3*[1+cos(N3*Phi-D3)]+K4*[1+cos(N4*Phi-D4)]+K5*[1+cos(N5*Phi-D5)]</t>
   </si>
   <si>
-    <t>kJ/degrees^2</t>
-  </si>
-  <si>
-    <t>kJ/radians^2</t>
-  </si>
-  <si>
     <t>Lennard-Jones (9-6) [Class 2 Form]</t>
   </si>
   <si>
-    <t>kJ/mol</t>
-  </si>
-  <si>
-    <t>Lorentz-Berthelot</t>
-  </si>
-  <si>
-    <t>kJ/nm^2</t>
-  </si>
-  <si>
     <t>M1*(Theta-Theta1)(Theta-Theta3)+M2*(Theta-Theta1)(Theta-Theta2)+M3*(Theta-Theta2)(Theta-Theta3)</t>
   </si>
   <si>
     <t>N1*(R-R1)*(Theta-Theta0)+N2*(R-R2)*(Theta-Theta0)</t>
   </si>
   <si>
-    <t>kJ/nm</t>
-  </si>
-  <si>
-    <t>kJ/radian</t>
-  </si>
-  <si>
-    <t>kJ/radian^2</t>
-  </si>
-  <si>
     <t>(R-R2)*[A1*cos(Phi)+A2*cos(2*Phi)+A3*cos(3*Phi)]</t>
   </si>
   <si>
@@ -713,12 +6136,6 @@
     <t>(Theta-Theta1)*[D1*cos(Phi)+D2*cos(2*Phi)+D3*cos(3*Phi)]+(Theta-Theta2)*[E1*cos(Phi)+E2*cos(2*Phi)+E3*cos(3*Phi)]</t>
   </si>
   <si>
-    <t>K2:kJ/mol/nm^2 | K3:kJ/mol/nm^3 | K4:kJ/mol/nm^4</t>
-  </si>
-  <si>
-    <t>K2: kJ/mol/radians^2 | K3: kJ/mol/radians^3 | K4: kJ/mol/radians^4</t>
-  </si>
-  <si>
     <t>Polymers</t>
   </si>
   <si>
@@ -1020,13 +6437,16 @@
   </si>
   <si>
     <t>Force-Field Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,7 +6517,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1106,9 +6526,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1373,7 +6807,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1419,9 +6853,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1439,9 +6870,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
@@ -1462,14 +6891,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1478,33 +6903,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1526,6 +6924,40 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1882,14 +7314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9435C-645C-4256-8AD9-DAE05BFFE463}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C9435C-645C-4256-8AD9-DAE05BFFE463}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,10 +7332,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -1913,7 +7345,7 @@
       <c r="A3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
@@ -1921,79 +7353,79 @@
     </row>
     <row r="5" spans="1:2" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>312</v>
+        <v>296</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>286</v>
+      <c r="A6" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="34"/>
+        <v>289</v>
+      </c>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="58"/>
     </row>
     <row r="13" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="33"/>
     </row>
     <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="36"/>
+        <v>290</v>
+      </c>
+      <c r="B14" s="35"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="35"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2012,18 +7444,19 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,19 +7474,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2086,7 +7519,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -2163,11 +7596,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2175,7 +7609,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="A10:H33"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,11 +7646,11 @@
         <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2224,7 +7658,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -2236,7 +7670,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -2290,9 +7724,9 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="8"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" s="8"/>
@@ -2326,11 +7760,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2338,7 +7773,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="A9:J36"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,7 +7821,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -2398,7 +7833,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -2461,11 +7896,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2473,7 +7909,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="A10:I37"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,7 +7957,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -2533,7 +7969,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -2602,11 +8038,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2614,7 +8051,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="A9:I29"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,7 +8101,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -2676,7 +8113,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -2736,11 +8173,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -2748,7 +8186,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="A9:K24"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,7 +8235,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -2809,14 +8247,15 @@
         <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -2844,13 +8283,13 @@
       <c r="I8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="24" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2871,18 +8310,19 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,7 +8354,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C4" s="5"/>
       <c r="I4" s="5" t="s">
@@ -2926,7 +8366,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -2938,7 +8378,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="I6" s="5" t="s">
@@ -2958,71 +8398,71 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:22" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:22" s="43" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="44" t="s">
+      <c r="O9" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="P9" s="44" t="s">
+      <c r="P9" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="Q9" s="44" t="s">
+      <c r="Q9" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="R9" s="44" t="s">
+      <c r="R9" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="S9" s="44" t="s">
+      <c r="S9" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="T9" s="45" t="s">
+      <c r="T9" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="U9" s="45" t="s">
+      <c r="U9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="V9" s="45" t="s">
+      <c r="V9" s="24" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3046,18 +8486,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8064A2"/>
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="A10:K30"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,7 +8547,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -3118,7 +8559,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -3139,7 +8580,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" s="49" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
@@ -3200,11 +8641,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3212,7 +8654,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="A9:L24"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3281,7 +8723,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3296,7 +8738,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -3348,44 +8790,44 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -3410,11 +8852,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3422,7 +8865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="A10:K35"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,7 +8929,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3500,7 +8943,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -3561,34 +9004,34 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -3610,11 +9053,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3622,7 +9066,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3633,10 +9077,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -3655,7 +9099,7 @@
       <c r="A5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="83" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3668,6 +9112,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3684,15 +9129,15 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3739,7 +9184,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3751,7 +9196,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -3820,11 +9265,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3832,7 +9278,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="A9:I34"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3880,7 +9326,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -3892,7 +9338,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -3952,11 +9398,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3964,7 +9411,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="A10:J32"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4012,7 +9459,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="G5" s="5" t="s">
@@ -4024,7 +9471,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="G6" s="5" t="s">
@@ -4093,18 +9540,19 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="A10:J35"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4141,7 +9589,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -4153,7 +9601,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -4165,7 +9613,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -4236,18 +9684,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="A10:L36"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4265,7 +9714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>109</v>
@@ -4295,7 +9744,7 @@
         <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -4307,7 +9756,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -4326,7 +9775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>4</v>
@@ -4368,18 +9817,19 @@
       <formula1>"Ki*(Chi-Chi0)^2"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-1600-000003000000}">
-      <formula1>" kcal/radians^2, , kJ/radians^2"</formula1>
+      <formula1>" ?, kcal/radians^2, kJ/radians^2"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-1600-000004000000}">
       <formula1>"degrees"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4387,7 +9837,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4411,7 +9861,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -4422,7 +9872,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4433,7 +9883,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4441,10 +9891,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4455,7 +9905,7 @@
         <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -4470,7 +9920,7 @@
         <v>73</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>120</v>
@@ -4502,11 +9952,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4514,7 +9965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4538,7 +9989,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -4549,7 +10000,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -4560,7 +10011,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4568,10 +10019,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4582,7 +10033,7 @@
         <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -4597,7 +10048,7 @@
         <v>73</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>120</v>
@@ -4629,18 +10080,19 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4652,21 +10104,21 @@
     <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="38"/>
+    <col min="10" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -4718,7 +10170,7 @@
         <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4735,7 +10187,7 @@
         <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4806,18 +10258,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="A9:H32"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4829,22 +10282,22 @@
     <col min="8" max="8" width="36.140625" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="38"/>
+    <col min="11" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -4899,7 +10352,7 @@
         <v>158</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -4917,7 +10370,7 @@
         <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -4993,18 +10446,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,7 +10478,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>109</v>
@@ -5042,7 +10496,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5"/>
       <c r="H4" s="5" t="s">
@@ -5054,7 +10508,7 @@
         <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="C5" s="5"/>
       <c r="H5" s="5" t="s">
@@ -5074,8 +10528,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:13" s="49" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:13" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>4</v>
       </c>
@@ -5133,6 +10587,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5183,372 +10638,372 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5557,14 +11012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5576,23 +11031,23 @@
     <col min="9" max="9" width="36.140625" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="38"/>
+    <col min="12" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -5614,7 +11069,7 @@
       <c r="B3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -5631,9 +11086,9 @@
         <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="51"/>
+        <v>194</v>
+      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -5650,9 +11105,9 @@
         <v>158</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="51"/>
+        <v>271</v>
+      </c>
+      <c r="C5" s="48"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -5669,9 +11124,9 @@
         <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="51"/>
+        <v>271</v>
+      </c>
+      <c r="C6" s="48"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>24</v>
@@ -5750,18 +11205,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5773,23 +11229,23 @@
     <col min="9" max="9" width="36.140625" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="38"/>
+    <col min="12" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -5811,7 +11267,7 @@
       <c r="B3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -5828,9 +11284,9 @@
         <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="51"/>
+        <v>195</v>
+      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -5847,9 +11303,9 @@
         <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="51"/>
+        <v>271</v>
+      </c>
+      <c r="C5" s="48"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -5866,9 +11322,9 @@
         <v>173</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="51"/>
+        <v>271</v>
+      </c>
+      <c r="C6" s="48"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>24</v>
@@ -5947,18 +11403,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,27 +11427,27 @@
     <col min="13" max="13" width="36.140625" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="38"/>
+    <col min="16" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -6016,11 +11473,11 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="53" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="50" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="15"/>
@@ -6037,13 +11494,13 @@
         <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="51"/>
+        <v>196</v>
+      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="15"/>
@@ -6060,13 +11517,13 @@
         <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="51"/>
+        <v>271</v>
+      </c>
+      <c r="C5" s="48"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="15"/>
@@ -6083,13 +11540,13 @@
         <v>179</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="51"/>
+        <v>271</v>
+      </c>
+      <c r="C6" s="48"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="15"/>
@@ -6106,13 +11563,13 @@
         <v>173</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="51"/>
+        <v>271</v>
+      </c>
+      <c r="C7" s="48"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="15"/>
@@ -6207,18 +11664,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6230,27 +11688,27 @@
     <col min="13" max="13" width="36.140625" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="38"/>
+    <col min="16" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -6259,8 +11717,8 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -6276,12 +11734,12 @@
       <c r="B3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="53" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="50" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="15"/>
@@ -6297,14 +11755,14 @@
         <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="51"/>
+        <v>197</v>
+      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="15"/>
@@ -6320,14 +11778,14 @@
         <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="51"/>
+        <v>271</v>
+      </c>
+      <c r="C5" s="48"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="15"/>
@@ -6343,14 +11801,14 @@
         <v>184</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="51"/>
+        <v>271</v>
+      </c>
+      <c r="C6" s="48"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49" t="s">
         <v>91</v>
       </c>
       <c r="I6" s="15"/>
@@ -6368,12 +11826,12 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49" t="s">
         <v>146</v>
       </c>
       <c r="I7" s="15"/>
@@ -6391,8 +11849,8 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -6467,18 +11925,19 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="A9:H29"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6490,29 +11949,29 @@
     <col min="8" max="8" width="36.140625" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="38"/>
+    <col min="11" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -6526,9 +11985,9 @@
       <c r="B3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="53" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="50" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="15"/>
@@ -6544,9 +12003,9 @@
       <c r="B4" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="53" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="50" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="15"/>
@@ -6560,11 +12019,11 @@
         <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="50" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="15"/>
@@ -6580,9 +12039,9 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="53" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="50" t="s">
         <v>146</v>
       </c>
       <c r="F6" s="15"/>
@@ -6596,7 +12055,7 @@
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="54"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -6655,18 +12114,19 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="A6:K31"/>
+      <selection activeCell="G5" sqref="G5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6679,32 +12139,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6743,18 +12203,19 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="A6:K31"/>
+      <selection activeCell="K5" sqref="K5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6773,40 +12234,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6856,18 +12317,19 @@
     <mergeCell ref="B3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M43" sqref="M42:M43"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6881,15 +12343,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
@@ -6897,12 +12359,12 @@
       <c r="A3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6933,11 +12395,12 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -6945,7 +12408,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6956,24 +12419,24 @@
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="42"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>188</v>
@@ -6998,13 +12461,13 @@
       <c r="A6" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="64" t="s">
+      <c r="B6" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="83" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="24" t="s">
@@ -7021,54 +12484,54 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7081,11 +12544,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -7093,7 +12557,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7104,25 +12568,25 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="42"/>
+    <col min="7" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -7144,8 +12608,8 @@
       <c r="A6" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>291</v>
+      <c r="B6" s="62" t="s">
+        <v>276</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>45</v>
@@ -7161,44 +12625,44 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -7208,11 +12672,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B066E-C73F-4DA4-9B41-05C1DDD43D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B066E-C73F-4DA4-9B41-05C1DDD43D22}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7220,7 +12685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7233,94 +12698,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
     </row>
     <row r="3" spans="1:4" ht="25.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="83" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="81"/>
+        <v>292</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="69" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="34"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="34"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="34"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="34"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
@@ -7389,11 +12854,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -7401,7 +12867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7412,25 +12878,25 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="42"/>
+    <col min="7" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -7452,7 +12918,7 @@
       <c r="A6" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="62" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7469,44 +12935,44 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7519,11 +12985,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -7531,7 +12998,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7549,7 +13016,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7559,13 +13026,13 @@
       <c r="A3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7575,22 +13042,22 @@
       <c r="B5" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="C5" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="83" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7600,11 +13067,12 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -7612,7 +13080,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7631,7 +13099,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7641,14 +13109,14 @@
       <c r="A3" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7658,25 +13126,25 @@
       <c r="B5" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="83" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7686,18 +13154,19 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7708,10 +13177,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="71"/>
+      <c r="A1" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:2" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -7721,28 +13190,29 @@
       <c r="A3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2" ht="338.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="68"/>
+      <c r="A5" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -7750,7 +13220,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7762,19 +13232,19 @@
     <col min="5" max="5" width="36.140625" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="38"/>
+    <col min="8" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -7820,7 +13290,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -7835,7 +13305,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -7897,18 +13367,19 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7920,21 +13391,21 @@
     <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="38"/>
+    <col min="10" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -7954,7 +13425,7 @@
       <c r="B3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -7971,7 +13442,7 @@
       <c r="B4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -7986,9 +13457,9 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="48"/>
+        <v>271</v>
+      </c>
+      <c r="C5" s="45"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>24</v>
@@ -8003,9 +13474,9 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="48"/>
+        <v>271</v>
+      </c>
+      <c r="C6" s="45"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>24</v>
@@ -8074,11 +13545,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -8086,7 +13558,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8104,17 +13576,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -8143,7 +13615,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -8210,11 +13682,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -8222,7 +13695,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="A9:H33"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8240,17 +13713,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -8281,7 +13754,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -8350,11 +13823,12 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -8362,7 +13836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="A11:I30"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8378,19 +13852,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -8421,7 +13895,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -8445,7 +13919,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -8457,7 +13931,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
@@ -8528,5 +14002,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>